--- a/src/test/resources/converter/converter07.xlsx
+++ b/src/test/resources/converter/converter07.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>大数的布尔</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>字符串的字符串公式</t>
+  </si>
+  <si>
+    <t>字符串的数字日期</t>
   </si>
   <si>
     <t>1</t>
@@ -131,12 +134,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +149,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,135 +291,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -305,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,11 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +521,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,11 +560,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,33 +584,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,148 +597,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,18 +1100,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="10" max="10" width="14.875"/>
+    <col min="33" max="33" width="14.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,8 +1209,11 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1230,22 +1230,22 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="J2" s="2">
         <v>43831.0423726852</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" t="b">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X2" t="b">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="b">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD2" t="e">
         <f>AB2+AC2</f>
@@ -1312,6 +1312,9 @@
       <c r="AF2" t="str">
         <f>_xlfn.CONCAT(AB2,AC2)</f>
         <v>1测试</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>43831.0423726852</v>
       </c>
     </row>
   </sheetData>
